--- a/data/shikov_meas.xlsx
+++ b/data/shikov_meas.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanek\Desktop\syntez\LabWork\optmized_detector\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24F74B4-64AA-4238-A0C4-0D7C8397991E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EBC030-1D01-4812-9924-55DC24469501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8505" yWindow="-13095" windowWidth="17280" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8370" yWindow="-12450" windowWidth="17175" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="дет" sheetId="1" r:id="rId1"/>
     <sheet name="фаза" sheetId="2" r:id="rId2"/>
     <sheet name="амп" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
   <si>
     <t>1. Сигнал - Детерминированный</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>3. Сигнал - Случайная амплитуда</t>
+  </si>
+  <si>
+    <t>СКО=0,01</t>
+  </si>
+  <si>
+    <t>нет сигнала</t>
+  </si>
+  <si>
+    <t>_Inf</t>
   </si>
 </sst>
 </file>
@@ -390,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,15 +415,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -439,8 +454,20 @@
       <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.5</v>
       </c>
@@ -465,8 +492,20 @@
       <c r="J4" s="1">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -491,8 +530,20 @@
       <c r="J5" s="1">
         <v>0.45100000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -517,8 +568,20 @@
       <c r="J6" s="1">
         <v>0.35299999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -543,8 +606,20 @@
       <c r="J7" s="1">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -569,8 +644,20 @@
       <c r="J8" s="1">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -596,7 +683,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -622,7 +709,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -648,7 +735,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>23</v>
       </c>
@@ -674,7 +761,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>25</v>
       </c>
@@ -700,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>27</v>
       </c>
@@ -726,7 +813,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>30</v>
       </c>
@@ -759,15 +846,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F791ED9D-E8D9-43E0-A945-D5E588F9B433}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="A1:J15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -775,15 +862,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -808,8 +901,20 @@
       <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.5</v>
       </c>
@@ -834,8 +939,20 @@
       <c r="J4" s="1">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -860,8 +977,20 @@
       <c r="J5" s="1">
         <v>0.99299999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -886,8 +1015,20 @@
       <c r="J6" s="1">
         <v>0.92600000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.628</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -912,8 +1053,20 @@
       <c r="J7" s="1">
         <v>0.84099999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -938,8 +1091,20 @@
       <c r="J8" s="1">
         <v>0.67200000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -965,7 +1130,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -991,7 +1156,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -1017,7 +1182,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>23</v>
       </c>
@@ -1043,7 +1208,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>25</v>
       </c>
@@ -1069,7 +1234,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>27</v>
       </c>
@@ -1095,7 +1260,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>30</v>
       </c>
@@ -1130,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AC9079-6650-4908-BAFA-CA4CC091C2EA}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
